--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CCDQCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CCDQCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>CCDQCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1297.8884614071665</v>
       </c>
       <c r="C2" t="n">
-        <v>204.42989135317805</v>
+        <v>1075.7189018465172</v>
       </c>
       <c r="D2" t="n">
-        <v>190.56893626946174</v>
-      </c>
-      <c r="E2" t="n">
-        <v>218.29084643689436</v>
+        <v>1520.0580209678158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1315.836095768371</v>
       </c>
       <c r="C3" t="n">
-        <v>221.70004406523068</v>
+        <v>1052.5026162638137</v>
       </c>
       <c r="D3" t="n">
-        <v>205.78966671167004</v>
-      </c>
-      <c r="E3" t="n">
-        <v>237.61042141879133</v>
+        <v>1579.1695752729283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1301.2795495333464</v>
       </c>
       <c r="C4" t="n">
-        <v>214.2892564547327</v>
+        <v>1005.0446422229763</v>
       </c>
       <c r="D4" t="n">
-        <v>197.01750945831583</v>
-      </c>
-      <c r="E4" t="n">
-        <v>231.5610034511496</v>
+        <v>1597.5144568437165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1329.9410277329969</v>
       </c>
       <c r="C5" t="n">
-        <v>216.60797549302026</v>
+        <v>1004.2764835845481</v>
       </c>
       <c r="D5" t="n">
-        <v>198.39374447817016</v>
-      </c>
-      <c r="E5" t="n">
-        <v>234.82220650787036</v>
+        <v>1655.6055718814455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1343.5929444407645</v>
       </c>
       <c r="C6" t="n">
-        <v>204.8714966678635</v>
+        <v>990.9570656469302</v>
       </c>
       <c r="D6" t="n">
-        <v>185.98976053385627</v>
-      </c>
-      <c r="E6" t="n">
-        <v>223.75323280187075</v>
+        <v>1696.2288232345988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1368.4012896023526</v>
       </c>
       <c r="C7" t="n">
-        <v>222.96008754690354</v>
+        <v>990.715976566876</v>
       </c>
       <c r="D7" t="n">
-        <v>203.59896962798337</v>
-      </c>
-      <c r="E7" t="n">
-        <v>242.3212054658237</v>
+        <v>1746.0866026378292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1354.327315565539</v>
       </c>
       <c r="C8" t="n">
-        <v>216.25352444697543</v>
+        <v>953.153673958836</v>
       </c>
       <c r="D8" t="n">
-        <v>196.5449960842121</v>
-      </c>
-      <c r="E8" t="n">
-        <v>235.96205280973876</v>
+        <v>1755.500957172242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1383.0227371761948</v>
       </c>
       <c r="C9" t="n">
-        <v>219.17819294032432</v>
+        <v>959.6619181220077</v>
       </c>
       <c r="D9" t="n">
-        <v>199.21634627544776</v>
-      </c>
-      <c r="E9" t="n">
-        <v>239.14003960520088</v>
+        <v>1806.3835562303818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1396.6770414130308</v>
       </c>
       <c r="C10" t="n">
-        <v>207.96310287198884</v>
+        <v>952.2352844703548</v>
       </c>
       <c r="D10" t="n">
-        <v>187.81575809556568</v>
-      </c>
-      <c r="E10" t="n">
-        <v>228.110447648412</v>
+        <v>1841.1187983557068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1421.485554509864</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5003223180966</v>
+        <v>956.9184791534014</v>
       </c>
       <c r="D11" t="n">
-        <v>206.2167326755857</v>
-      </c>
-      <c r="E11" t="n">
-        <v>246.78391196060753</v>
+        <v>1886.0526298663265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1407.411592285366</v>
       </c>
       <c r="C12" t="n">
-        <v>220.17978133421167</v>
+        <v>923.5555602931003</v>
       </c>
       <c r="D12" t="n">
-        <v>199.79590637440685</v>
-      </c>
-      <c r="E12" t="n">
-        <v>240.56365629401648</v>
+        <v>1891.2676242776315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1436.1070147268824</v>
       </c>
       <c r="C13" t="n">
-        <v>223.43660226949794</v>
+        <v>933.7020467127526</v>
       </c>
       <c r="D13" t="n">
-        <v>202.9787954962826</v>
-      </c>
-      <c r="E13" t="n">
-        <v>243.89440904271328</v>
+        <v>1938.5119827410122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1449.7613190221598</v>
       </c>
       <c r="C14" t="n">
-        <v>212.50731252217992</v>
+        <v>929.4682822868477</v>
       </c>
       <c r="D14" t="n">
-        <v>191.9949403117485</v>
-      </c>
-      <c r="E14" t="n">
-        <v>233.01968473261132</v>
+        <v>1970.0543557574717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1474.5698321231034</v>
       </c>
       <c r="C15" t="n">
-        <v>231.29044864141903</v>
+        <v>936.9836192555986</v>
       </c>
       <c r="D15" t="n">
-        <v>210.73777099053999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>251.84312629229808</v>
+        <v>2012.1560449906083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1460.4958698988946</v>
       </c>
       <c r="C16" t="n">
-        <v>225.18150647557837</v>
+        <v>906.1556959486387</v>
       </c>
       <c r="D16" t="n">
-        <v>204.59903861823273</v>
-      </c>
-      <c r="E16" t="n">
-        <v>245.76397433292402</v>
+        <v>2014.8360438491504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1489.1912923404316</v>
       </c>
       <c r="C17" t="n">
-        <v>228.62039745608618</v>
+        <v>918.5888732733779</v>
       </c>
       <c r="D17" t="n">
-        <v>208.01590148562445</v>
-      </c>
-      <c r="E17" t="n">
-        <v>249.2248934265479</v>
+        <v>2059.7937114074853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1502.8455966357103</v>
       </c>
       <c r="C18" t="n">
-        <v>217.84776974343052</v>
+        <v>916.4317386521637</v>
       </c>
       <c r="D18" t="n">
-        <v>197.22697991499794</v>
-      </c>
-      <c r="E18" t="n">
-        <v>238.4685595718631</v>
+        <v>2089.2594546192568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1527.6541097366544</v>
       </c>
       <c r="C19" t="n">
-        <v>236.76570559359013</v>
+        <v>925.8440857048835</v>
       </c>
       <c r="D19" t="n">
-        <v>216.132860523905</v>
-      </c>
-      <c r="E19" t="n">
-        <v>257.3985506632753</v>
+        <v>2129.4641337684257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1513.5801475124454</v>
       </c>
       <c r="C20" t="n">
-        <v>230.77275175571546</v>
+        <v>896.7581333016243</v>
       </c>
       <c r="D20" t="n">
-        <v>210.13098584781466</v>
-      </c>
-      <c r="E20" t="n">
-        <v>251.41451766361627</v>
+        <v>2130.402161723266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1542.2755699539823</v>
       </c>
       <c r="C21" t="n">
-        <v>234.3114448065426</v>
+        <v>910.7983420153433</v>
       </c>
       <c r="D21" t="n">
-        <v>213.66307663467515</v>
-      </c>
-      <c r="E21" t="n">
-        <v>254.95981297841004</v>
+        <v>2173.7527978926214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1555.929874249261</v>
       </c>
       <c r="C22" t="n">
-        <v>223.62469171088236</v>
+        <v>910.1299194683388</v>
       </c>
       <c r="D22" t="n">
-        <v>202.97143676132035</v>
-      </c>
-      <c r="E22" t="n">
-        <v>244.27794666044437</v>
+        <v>2201.7298290301833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1580.738387350205</v>
       </c>
       <c r="C23" t="n">
-        <v>242.61651831120895</v>
+        <v>920.9265400899312</v>
       </c>
       <c r="D23" t="n">
-        <v>221.9596460685851</v>
-      </c>
-      <c r="E23" t="n">
-        <v>263.2733905538328</v>
+        <v>2240.550234610479</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1566.664425125996</v>
       </c>
       <c r="C24" t="n">
-        <v>236.68714371422374</v>
+        <v>893.1321200544512</v>
       </c>
       <c r="D24" t="n">
-        <v>216.0275937338215</v>
-      </c>
-      <c r="E24" t="n">
-        <v>257.34669369462597</v>
+        <v>2240.1967301975405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1595.359847567533</v>
       </c>
       <c r="C25" t="n">
-        <v>240.28054347547044</v>
+        <v>908.3810573818664</v>
       </c>
       <c r="D25" t="n">
-        <v>219.61901119411357</v>
-      </c>
-      <c r="E25" t="n">
-        <v>260.94207575682736</v>
+        <v>2282.3386377531997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1609.0141518628118</v>
       </c>
       <c r="C26" t="n">
-        <v>229.6408627280023</v>
+        <v>908.8470644080132</v>
       </c>
       <c r="D26" t="n">
-        <v>208.97786292722094</v>
-      </c>
-      <c r="E26" t="n">
-        <v>250.30386252878367</v>
+        <v>2309.18123931761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1633.8226649637559</v>
       </c>
       <c r="C27" t="n">
-        <v>248.67319269523443</v>
+        <v>920.7111431490337</v>
       </c>
       <c r="D27" t="n">
-        <v>228.00910644995753</v>
-      </c>
-      <c r="E27" t="n">
-        <v>269.33727894051134</v>
+        <v>2346.9341867784783</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1619.7487027395468</v>
       </c>
       <c r="C28" t="n">
-        <v>242.77866919010438</v>
+        <v>893.9235621341235</v>
       </c>
       <c r="D28" t="n">
-        <v>222.11377860754428</v>
-      </c>
-      <c r="E28" t="n">
-        <v>263.44355977266446</v>
+        <v>2345.5738433449696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1648.4441251810838</v>
       </c>
       <c r="C29" t="n">
-        <v>246.4020565473535</v>
+        <v>910.12425755943</v>
       </c>
       <c r="D29" t="n">
-        <v>225.73657047542028</v>
-      </c>
-      <c r="E29" t="n">
-        <v>267.06754261928677</v>
+        <v>2386.7639928027374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1662.0984294763625</v>
       </c>
       <c r="C30" t="n">
-        <v>235.78817860450732</v>
+        <v>911.4917954030753</v>
       </c>
       <c r="D30" t="n">
-        <v>215.12225165942334</v>
-      </c>
-      <c r="E30" t="n">
-        <v>256.4541055495913</v>
+        <v>2412.7050635496494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1686.9069425773064</v>
       </c>
       <c r="C31" t="n">
-        <v>254.84271057573827</v>
+        <v>924.2114520276353</v>
       </c>
       <c r="D31" t="n">
-        <v>234.17645722617195</v>
-      </c>
-      <c r="E31" t="n">
-        <v>275.50896392530456</v>
+        <v>2449.6024331269778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1672.8329803530976</v>
       </c>
       <c r="C32" t="n">
-        <v>248.96729076839554</v>
+        <v>898.2372771021843</v>
       </c>
       <c r="D32" t="n">
-        <v>228.30079576111103</v>
-      </c>
-      <c r="E32" t="n">
-        <v>269.63378577568005</v>
+        <v>2447.4286836040105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1701.5284027946345</v>
       </c>
       <c r="C33" t="n">
-        <v>252.60711588816235</v>
+        <v>915.2125656879725</v>
       </c>
       <c r="D33" t="n">
-        <v>231.94044196586805</v>
-      </c>
-      <c r="E33" t="n">
-        <v>273.2737898104567</v>
+        <v>2487.8442399012965</v>
       </c>
     </row>
   </sheetData>
